--- a/Model-output/tukey/nitrogen.xlsx
+++ b/Model-output/tukey/nitrogen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelwooliver/Library/CloudStorage/GoogleDrive-rwoolive@utk.edu/My Drive/*1_UTK-postdoc_2020-/5_Microplastic Lab incubation/microplastic-incubation/Model-output/tukey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2226E328-3635-954C-875B-5203F0A5818F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C0FA32-228A-2946-B9C0-7A930F2E3C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="760" windowWidth="28160" windowHeight="17240" xr2:uid="{304E211A-C04A-494F-8E58-84BCB633B3EE}"/>
+    <workbookView xWindow="32060" yWindow="10280" windowWidth="22260" windowHeight="17240" xr2:uid="{304E211A-C04A-494F-8E58-84BCB633B3EE}"/>
   </bookViews>
   <sheets>
     <sheet name="nitrogen" sheetId="1" r:id="rId1"/>
@@ -996,9 +996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747B51B-007E-9B48-8E39-4D253692BCD1}">
   <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K132" sqref="K132"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -1006,7 +1006,7 @@
     <col min="9" max="9" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1130,8 +1130,12 @@
       <c r="J4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f>(C4-C3)/C3</f>
+        <v>7.2331894315944625E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>21</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1194,8 +1198,12 @@
       <c r="J6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <f>(C6-C5)/C5</f>
+        <v>0.12821093647718337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>22</v>
       </c>
@@ -1227,7 +1235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13</v>
       </c>
@@ -1258,8 +1266,12 @@
       <c r="J8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <f>(C8-C7)/C7</f>
+        <v>8.0071545722344116E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>23</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1322,8 +1334,12 @@
       <c r="J10">
         <v>193</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <f>(C10-C9)/C9</f>
+        <v>-0.15851473169330596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>24</v>
       </c>
@@ -1355,7 +1371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1387,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>25</v>
       </c>
@@ -1419,7 +1435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1451,7 +1467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>26</v>
       </c>
@@ -1483,7 +1499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17</v>
       </c>
@@ -1515,7 +1531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>27</v>
       </c>
@@ -1547,7 +1563,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1579,7 +1595,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>28</v>
       </c>
@@ -1611,7 +1627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1642,8 +1658,12 @@
       <c r="J20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <f>(C20-C19)/C19</f>
+        <v>0.2018046267620838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>29</v>
       </c>
@@ -1675,7 +1695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>110</v>
       </c>
@@ -1706,8 +1726,12 @@
       <c r="J22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <f>(C22-C21)/C21</f>
+        <v>0.38966916895995857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>210</v>
       </c>
@@ -1739,7 +1763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>111</v>
       </c>
@@ -1770,8 +1794,12 @@
       <c r="J24">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <f>(C24-C23)/C23</f>
+        <v>0.29961197302267517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>211</v>
       </c>
@@ -1803,7 +1831,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>112</v>
       </c>
@@ -1834,8 +1862,12 @@
       <c r="J26">
         <v>193</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <f>(C26-C25)/C25</f>
+        <v>-7.3904417314942336E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>212</v>
       </c>
@@ -1867,7 +1899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>113</v>
       </c>
@@ -1899,7 +1931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>213</v>
       </c>
@@ -1931,7 +1963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>114</v>
       </c>
@@ -1963,7 +1995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>214</v>
       </c>
@@ -1995,7 +2027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>115</v>
       </c>
@@ -2027,7 +2059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>215</v>
       </c>
@@ -2059,7 +2091,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>116</v>
       </c>
@@ -2091,7 +2123,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>216</v>
       </c>
@@ -2123,7 +2155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>117</v>
       </c>
@@ -2154,8 +2186,12 @@
       <c r="J36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <f>(C36-C35)/C35</f>
+        <v>1.5484208040085235E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>217</v>
       </c>
@@ -2187,7 +2223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>118</v>
       </c>
@@ -2218,8 +2254,12 @@
       <c r="J38">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <f>(C38-C37)/C37</f>
+        <v>-5.6725118516547629E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>218</v>
       </c>
@@ -2251,7 +2291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>119</v>
       </c>
@@ -2282,8 +2322,12 @@
       <c r="J40">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <f>(C40-C39)/C39</f>
+        <v>-0.15236825435924484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>219</v>
       </c>
@@ -2315,7 +2359,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>120</v>
       </c>
@@ -2346,8 +2390,12 @@
       <c r="J42">
         <v>193</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <f>(C42-C41)/C41</f>
+        <v>-0.19725371216281293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>220</v>
       </c>
@@ -2379,7 +2427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>121</v>
       </c>
@@ -2411,7 +2459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>221</v>
       </c>
@@ -2443,7 +2491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>122</v>
       </c>
@@ -2475,7 +2523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>222</v>
       </c>
@@ -2507,7 +2555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>123</v>
       </c>
@@ -2539,7 +2587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>223</v>
       </c>
@@ -2571,7 +2619,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>124</v>
       </c>
@@ -2603,7 +2651,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>224</v>
       </c>
@@ -2635,7 +2683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>125</v>
       </c>
@@ -2666,8 +2714,12 @@
       <c r="J52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <f>(C52-C51)/C51</f>
+        <v>0.16948596335738544</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>225</v>
       </c>
@@ -2699,7 +2751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>126</v>
       </c>
@@ -2730,8 +2782,12 @@
       <c r="J54">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <f>(C54-C53)/C53</f>
+        <v>0.10808672870562619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>226</v>
       </c>
@@ -2763,7 +2819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>127</v>
       </c>
@@ -2794,8 +2850,12 @@
       <c r="J56">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <f>(C56-C55)/C55</f>
+        <v>-7.1358152666930935E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>227</v>
       </c>
@@ -2827,7 +2887,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>128</v>
       </c>
@@ -2858,8 +2918,12 @@
       <c r="J58">
         <v>193</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <f>(C58-C57)/C57</f>
+        <v>-6.638994030960961E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>228</v>
       </c>
@@ -2891,7 +2955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>129</v>
       </c>
@@ -2923,7 +2987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>229</v>
       </c>
@@ -2955,7 +3019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>130</v>
       </c>
@@ -2987,7 +3051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>230</v>
       </c>
@@ -3019,7 +3083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>131</v>
       </c>
